--- a/biology/Zoologie/Burmadictynidae/Burmadictynidae.xlsx
+++ b/biology/Zoologie/Burmadictynidae/Burmadictynidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Burmadictynidae sont une famille fossile d'araignées aranéomorphes[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Burmadictynidae sont une famille fossile d'araignées aranéomorphes.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de cette famille ont été découvertes dans de l'ambre de Birmanie. Elles datent du Crétacé[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de cette famille ont été découvertes dans de l'ambre de Birmanie. Elles datent du Crétacé.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The World Spider Catalog 18.0[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The World Spider Catalog 18.0 :
 †Burmadictyna Wunderlich, 2008
 †Eodeinopis Wunderlich, 2017</t>
         </is>
@@ -574,7 +590,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Wunderlich, 2017 : New and rare fossil spiders (Araneae) in mid Cretaceous amber from Myanmar (Burma), including the description of new extinct families of the suborders Mesothelae and Opisthothelae as well as notes on the taxonomy, the evolution and the biogeography of the Mesothelae. Beiträge zur Araneologie, vol. 10, p. 72–279.</t>
         </is>
